--- a/biology/Médecine/Raphaël_Dubois/Raphaël_Dubois.xlsx
+++ b/biology/Médecine/Raphaël_Dubois/Raphaël_Dubois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Dubois</t>
+          <t>Raphaël_Dubois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raphaël Dubois (1849-1929) est un médecin et physiologiste  français, connu notamment pour ses travaux sur la bioluminescence .
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Dubois</t>
+          <t>Raphaël_Dubois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Raphaël Horace Dubois est né en 1849 au Mans. Il mène des études de pharmacie qu'il termine en 1875 à Paris puis acquiert le titre de docteur en médecine en 1876.Il exercera comme préparateur de physiologie en 1882. Il obtient le grade de Docteur ès sciences en 1886.
-Carrière scientifique
-Il reçoit la moitié du prix Barbier (soit 1 000 francs) en 1885 pour sa machine à anesthésier[1] (l'autre moitié du prix va à Édouard Heckel et Frédéric Schlagdenhauffen pour un ensemble de douze mémoires dont des travaux sur le Calophyllum, sur les kolas africains et sur le doundaké[2]).
-À partir de 1887, il est titulaire de la chaire de physiologie générale et comparée à l'université de Lyon. Il mena des recherches en physiologie, sur l'anesthésie et sur la bioluminescence (à ce sujet, il a écrit notamment en 1914 La vie et la lumière: biophotogénèse ou production de la lumière par les êtres vivants : action de  radium et des ondes hertziennes sur les animaux et sur les végétaux : photothérapie chez Félix Alcan, coll. «Bibliothèque scientifique internationale»)[3].
-La station biologique de Tamaris
-Il est le fondateur de la station maritime de biologie de Tamaris de Tamaris[4],[5], de la fondation de l'Institut en 1890, grâce à un don du mécène Michel Pacha, jusqu'à son départ à la retraite en 1919. Après cette date, désormais établi en permanence à La Seyne, il continue d'exercer une influence importante à l'Institut[5], bien que la direction soit passée à Edmond Couvreur, puis, après le décès de ce dernier en 1927, à Henry Cardot. 
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raphaël Horace Dubois est né en 1849 au Mans. Il mène des études de pharmacie qu'il termine en 1875 à Paris puis acquiert le titre de docteur en médecine en 1876.Il exercera comme préparateur de physiologie en 1882. Il obtient le grade de Docteur ès sciences en 1886.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Raphaël_Dubois</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Dubois</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière scientifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reçoit la moitié du prix Barbier (soit 1 000 francs) en 1885 pour sa machine à anesthésier (l'autre moitié du prix va à Édouard Heckel et Frédéric Schlagdenhauffen pour un ensemble de douze mémoires dont des travaux sur le Calophyllum, sur les kolas africains et sur le doundaké).
+À partir de 1887, il est titulaire de la chaire de physiologie générale et comparée à l'université de Lyon. Il mena des recherches en physiologie, sur l'anesthésie et sur la bioluminescence (à ce sujet, il a écrit notamment en 1914 La vie et la lumière: biophotogénèse ou production de la lumière par les êtres vivants : action de  radium et des ondes hertziennes sur les animaux et sur les végétaux : photothérapie chez Félix Alcan, coll. «Bibliothèque scientifique internationale»).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Raphaël_Dubois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Dubois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La station biologique de Tamaris</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fondateur de la station maritime de biologie de Tamaris de Tamaris de la fondation de l'Institut en 1890, grâce à un don du mécène Michel Pacha, jusqu'à son départ à la retraite en 1919. Après cette date, désormais établi en permanence à La Seyne, il continue d'exercer une influence importante à l'Institut, bien que la direction soit passée à Edmond Couvreur, puis, après le décès de ce dernier en 1927, à Henry Cardot. 
 Raphaël Dubois meurt en 1929.
 </t>
         </is>
